--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel20/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2202,28 +2202,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>871.4613900190644</v>
+        <v>932.3540522328835</v>
       </c>
       <c r="AB2" t="n">
-        <v>1192.371919987218</v>
+        <v>1275.687946822826</v>
       </c>
       <c r="AC2" t="n">
-        <v>1078.573617448138</v>
+        <v>1153.938079617333</v>
       </c>
       <c r="AD2" t="n">
-        <v>871461.3900190644</v>
+        <v>932354.0522328835</v>
       </c>
       <c r="AE2" t="n">
-        <v>1192371.919987218</v>
+        <v>1275687.946822826</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.768702799075394e-06</v>
+        <v>3.272563250203404e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.591666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1078573.617448138</v>
+        <v>1153938.079617333</v>
       </c>
     </row>
     <row r="3">
@@ -2308,28 +2308,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>302.6411441198072</v>
+        <v>339.1426051062701</v>
       </c>
       <c r="AB3" t="n">
-        <v>414.0869649696923</v>
+        <v>464.029874222178</v>
       </c>
       <c r="AC3" t="n">
-        <v>374.5670862076895</v>
+        <v>419.7435142964314</v>
       </c>
       <c r="AD3" t="n">
-        <v>302641.1441198072</v>
+        <v>339142.6051062701</v>
       </c>
       <c r="AE3" t="n">
-        <v>414086.9649696923</v>
+        <v>464029.874222178</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.282545503298865e-06</v>
+        <v>6.073568598880468e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.629166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>374567.0862076895</v>
+        <v>419743.5142964314</v>
       </c>
     </row>
     <row r="4">
@@ -2414,28 +2414,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>221.9044458052168</v>
+        <v>246.2956470325728</v>
       </c>
       <c r="AB4" t="n">
-        <v>303.6194524837807</v>
+        <v>336.9925700668859</v>
       </c>
       <c r="AC4" t="n">
-        <v>274.6424380713964</v>
+        <v>304.8304721518454</v>
       </c>
       <c r="AD4" t="n">
-        <v>221904.4458052168</v>
+        <v>246295.6470325728</v>
       </c>
       <c r="AE4" t="n">
-        <v>303619.4524837807</v>
+        <v>336992.5700668859</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.846388815607212e-06</v>
+        <v>7.116826348965931e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.951041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>274642.4380713964</v>
+        <v>304830.4721518453</v>
       </c>
     </row>
     <row r="5">
@@ -2520,28 +2520,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>197.3796543290815</v>
+        <v>221.7708555564376</v>
       </c>
       <c r="AB5" t="n">
-        <v>270.0635508287102</v>
+        <v>303.4366684118153</v>
       </c>
       <c r="AC5" t="n">
-        <v>244.2890645742713</v>
+        <v>274.4770986547201</v>
       </c>
       <c r="AD5" t="n">
-        <v>197379.6543290815</v>
+        <v>221770.8555564376</v>
       </c>
       <c r="AE5" t="n">
-        <v>270063.5508287101</v>
+        <v>303436.6684118152</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.076302673355712e-06</v>
+        <v>7.542227180566109e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.728125</v>
       </c>
       <c r="AH5" t="n">
-        <v>244289.0645742713</v>
+        <v>274477.0986547201</v>
       </c>
     </row>
     <row r="6">
@@ -2626,28 +2626,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>198.3216753033514</v>
+        <v>222.7128765307074</v>
       </c>
       <c r="AB6" t="n">
-        <v>271.3524654847378</v>
+        <v>304.7255830678429</v>
       </c>
       <c r="AC6" t="n">
-        <v>245.4549670245312</v>
+        <v>275.64300110498</v>
       </c>
       <c r="AD6" t="n">
-        <v>198321.6753033514</v>
+        <v>222712.8765307074</v>
       </c>
       <c r="AE6" t="n">
-        <v>271352.4654847378</v>
+        <v>304725.5830678429</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.076448557783217e-06</v>
+        <v>7.542497104951641e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.728125</v>
       </c>
       <c r="AH6" t="n">
-        <v>245454.9670245312</v>
+        <v>275643.00110498</v>
       </c>
     </row>
   </sheetData>
@@ -2923,28 +2923,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>527.2162898180683</v>
+        <v>574.1857974943655</v>
       </c>
       <c r="AB2" t="n">
-        <v>721.3605868702406</v>
+        <v>785.6263394213845</v>
       </c>
       <c r="AC2" t="n">
-        <v>652.5149448952865</v>
+        <v>710.6472642204993</v>
       </c>
       <c r="AD2" t="n">
-        <v>527216.2898180683</v>
+        <v>574185.7974943655</v>
       </c>
       <c r="AE2" t="n">
-        <v>721360.5868702406</v>
+        <v>785626.3394213845</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.332548410201924e-06</v>
+        <v>4.446197257635926e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.739583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>652514.9448952865</v>
+        <v>710647.2642204993</v>
       </c>
     </row>
     <row r="3">
@@ -3029,28 +3029,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>236.6551806611599</v>
+        <v>260.0973535805768</v>
       </c>
       <c r="AB3" t="n">
-        <v>323.8020586701658</v>
+        <v>355.8766738543435</v>
       </c>
       <c r="AC3" t="n">
-        <v>292.8988446498249</v>
+        <v>321.912303577733</v>
       </c>
       <c r="AD3" t="n">
-        <v>236655.1806611599</v>
+        <v>260097.3535805768</v>
       </c>
       <c r="AE3" t="n">
-        <v>323802.0586701658</v>
+        <v>355876.6738543435</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.741494577233832e-06</v>
+        <v>7.131866098040236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.202083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>292898.8446498249</v>
+        <v>321912.303577733</v>
       </c>
     </row>
     <row r="4">
@@ -3135,28 +3135,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>185.6586872160842</v>
+        <v>209.1861114815183</v>
       </c>
       <c r="AB4" t="n">
-        <v>254.0264065321407</v>
+        <v>286.2176663687948</v>
       </c>
       <c r="AC4" t="n">
-        <v>229.7824828210879</v>
+        <v>258.9014539996589</v>
       </c>
       <c r="AD4" t="n">
-        <v>185658.6872160842</v>
+        <v>209186.1114815183</v>
       </c>
       <c r="AE4" t="n">
-        <v>254026.4065321407</v>
+        <v>286217.6663687948</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.143533200731369e-06</v>
+        <v>7.898213762011645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.793750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>229782.4828210879</v>
+        <v>258901.4539996589</v>
       </c>
     </row>
     <row r="5">
@@ -3241,28 +3241,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>185.8816342847244</v>
+        <v>209.4090585501585</v>
       </c>
       <c r="AB5" t="n">
-        <v>254.3314525471845</v>
+        <v>286.5227123838386</v>
       </c>
       <c r="AC5" t="n">
-        <v>230.0584156725908</v>
+        <v>259.1773868511619</v>
       </c>
       <c r="AD5" t="n">
-        <v>185881.6342847244</v>
+        <v>209409.0585501585</v>
       </c>
       <c r="AE5" t="n">
-        <v>254331.4525471845</v>
+        <v>286522.7123838386</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.151078970691908e-06</v>
+        <v>7.912597164113211e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.7875</v>
       </c>
       <c r="AH5" t="n">
-        <v>230058.4156725908</v>
+        <v>259177.3868511619</v>
       </c>
     </row>
   </sheetData>
@@ -3538,28 +3538,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>178.3088944145096</v>
+        <v>199.1505280508705</v>
       </c>
       <c r="AB2" t="n">
-        <v>243.9700957710574</v>
+        <v>272.4865383802954</v>
       </c>
       <c r="AC2" t="n">
-        <v>220.6859322449184</v>
+        <v>246.4808055946184</v>
       </c>
       <c r="AD2" t="n">
-        <v>178308.8944145096</v>
+        <v>199150.5280508705</v>
       </c>
       <c r="AE2" t="n">
-        <v>243970.0957710574</v>
+        <v>272486.5383802954</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.049673593254726e-06</v>
+        <v>8.624744942170381e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.33125</v>
       </c>
       <c r="AH2" t="n">
-        <v>220685.9322449184</v>
+        <v>246480.8055946184</v>
       </c>
     </row>
     <row r="3">
@@ -3644,28 +3644,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.7764850284354</v>
+        <v>197.6181186647964</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.873385643901</v>
+        <v>270.3898282531389</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.789329189546</v>
+        <v>244.584202539246</v>
       </c>
       <c r="AD3" t="n">
-        <v>176776.4850284354</v>
+        <v>197618.1186647963</v>
       </c>
       <c r="AE3" t="n">
-        <v>241873.385643901</v>
+        <v>270389.8282531389</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.08486910976297e-06</v>
+        <v>8.699702181562996e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.29375</v>
       </c>
       <c r="AH3" t="n">
-        <v>218789.329189546</v>
+        <v>244584.2025392459</v>
       </c>
     </row>
   </sheetData>
@@ -3941,28 +3941,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>250.218555272685</v>
+        <v>283.0486025567175</v>
       </c>
       <c r="AB2" t="n">
-        <v>342.3600661875018</v>
+        <v>387.2795852411428</v>
       </c>
       <c r="AC2" t="n">
-        <v>309.6857019760395</v>
+        <v>350.318165176039</v>
       </c>
       <c r="AD2" t="n">
-        <v>250218.555272685</v>
+        <v>283048.6025567175</v>
       </c>
       <c r="AE2" t="n">
-        <v>342360.0661875018</v>
+        <v>387279.5852411428</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.433578735434206e-06</v>
+        <v>6.97135192981512e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.8875</v>
       </c>
       <c r="AH2" t="n">
-        <v>309685.7019760394</v>
+        <v>350318.165176039</v>
       </c>
     </row>
     <row r="3">
@@ -4047,28 +4047,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.3282633999435</v>
+        <v>203.1866041463233</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.1013296220844</v>
+        <v>278.0088757532017</v>
       </c>
       <c r="AC3" t="n">
-        <v>224.4228869354279</v>
+        <v>251.4760988393054</v>
       </c>
       <c r="AD3" t="n">
-        <v>181328.2633999435</v>
+        <v>203186.6041463233</v>
       </c>
       <c r="AE3" t="n">
-        <v>248101.3296220844</v>
+        <v>278008.8757532017</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.181900099207109e-06</v>
+        <v>8.490703016663111e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.0125</v>
       </c>
       <c r="AH3" t="n">
-        <v>224422.8869354279</v>
+        <v>251476.0988393054</v>
       </c>
     </row>
   </sheetData>
@@ -4344,28 +4344,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>175.7755718214526</v>
+        <v>205.829695857861</v>
       </c>
       <c r="AB2" t="n">
-        <v>240.5038920369336</v>
+        <v>281.6252704379025</v>
       </c>
       <c r="AC2" t="n">
-        <v>217.5505381303308</v>
+        <v>254.7473498909414</v>
       </c>
       <c r="AD2" t="n">
-        <v>175775.5718214526</v>
+        <v>205829.695857861</v>
       </c>
       <c r="AE2" t="n">
-        <v>240503.8920369336</v>
+        <v>281625.2704379025</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.90352959568763e-06</v>
+        <v>8.692397956421161e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.667708333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>217550.5381303308</v>
+        <v>254747.3498909414</v>
       </c>
     </row>
   </sheetData>
@@ -4641,28 +4641,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>604.4497027435644</v>
+        <v>640.0814832348909</v>
       </c>
       <c r="AB2" t="n">
-        <v>827.0347497326079</v>
+        <v>875.7877237640527</v>
       </c>
       <c r="AC2" t="n">
-        <v>748.1037139686885</v>
+        <v>792.203772583801</v>
       </c>
       <c r="AD2" t="n">
-        <v>604449.7027435645</v>
+        <v>640081.483234891</v>
       </c>
       <c r="AE2" t="n">
-        <v>827034.7497326079</v>
+        <v>875787.7237640526</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.178038450044489e-06</v>
+        <v>4.118155970207698e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.153125</v>
       </c>
       <c r="AH2" t="n">
-        <v>748103.7139686885</v>
+        <v>792203.772583801</v>
       </c>
     </row>
     <row r="3">
@@ -4747,28 +4747,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>252.8185164310527</v>
+        <v>276.487725740219</v>
       </c>
       <c r="AB3" t="n">
-        <v>345.9174477465698</v>
+        <v>378.3027041353524</v>
       </c>
       <c r="AC3" t="n">
-        <v>312.9035720319275</v>
+        <v>342.1980250038535</v>
       </c>
       <c r="AD3" t="n">
-        <v>252818.5164310527</v>
+        <v>276487.725740219</v>
       </c>
       <c r="AE3" t="n">
-        <v>345917.4477465698</v>
+        <v>378302.7041353524</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.615457082426388e-06</v>
+        <v>6.835974896916905e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.309375</v>
       </c>
       <c r="AH3" t="n">
-        <v>312903.5720319275</v>
+        <v>342198.0250038535</v>
       </c>
     </row>
     <row r="4">
@@ -4853,28 +4853,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.7767190816564</v>
+        <v>214.5311797368397</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.0291235222434</v>
+        <v>293.5310245634909</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.1168703300325</v>
+        <v>265.5168355526183</v>
       </c>
       <c r="AD4" t="n">
-        <v>190776.7190816564</v>
+        <v>214531.1797368397</v>
       </c>
       <c r="AE4" t="n">
-        <v>261029.1235222434</v>
+        <v>293531.0245634909</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.099881070594629e-06</v>
+        <v>7.75190617395479e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.799999999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>236116.8703300325</v>
+        <v>265516.8355526183</v>
       </c>
     </row>
     <row r="5">
@@ -4959,28 +4959,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>189.1481206607014</v>
+        <v>212.9025813158848</v>
       </c>
       <c r="AB5" t="n">
-        <v>258.8008033140025</v>
+        <v>291.3027043552499</v>
       </c>
       <c r="AC5" t="n">
-        <v>234.1012178749983</v>
+        <v>263.501183097584</v>
       </c>
       <c r="AD5" t="n">
-        <v>189148.1206607014</v>
+        <v>212902.5813158848</v>
       </c>
       <c r="AE5" t="n">
-        <v>258800.8033140025</v>
+        <v>291302.7043552499</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.127400062204064e-06</v>
+        <v>7.803938083487044e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.775</v>
       </c>
       <c r="AH5" t="n">
-        <v>234101.2178749983</v>
+        <v>263501.1830975841</v>
       </c>
     </row>
   </sheetData>
@@ -5256,28 +5256,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>188.3776331374846</v>
+        <v>207.9769006156329</v>
       </c>
       <c r="AB2" t="n">
-        <v>257.7465882932272</v>
+        <v>284.5631707154729</v>
       </c>
       <c r="AC2" t="n">
-        <v>233.1476156562055</v>
+        <v>257.4048610893904</v>
       </c>
       <c r="AD2" t="n">
-        <v>188377.6331374846</v>
+        <v>207976.9006156329</v>
       </c>
       <c r="AE2" t="n">
-        <v>257746.5882932272</v>
+        <v>284563.1707154729</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.724531457648164e-06</v>
+        <v>8.538736972370679e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.006250000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>233147.6156562055</v>
+        <v>257404.8610893904</v>
       </c>
     </row>
   </sheetData>
@@ -5553,28 +5553,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>368.624722708085</v>
+        <v>402.8105947080559</v>
       </c>
       <c r="AB2" t="n">
-        <v>504.3686081842138</v>
+        <v>551.1432264288051</v>
       </c>
       <c r="AC2" t="n">
-        <v>456.2323761048992</v>
+        <v>498.5428904328157</v>
       </c>
       <c r="AD2" t="n">
-        <v>368624.722708085</v>
+        <v>402810.594708056</v>
       </c>
       <c r="AE2" t="n">
-        <v>504368.6081842138</v>
+        <v>551143.226428805</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.829133739292206e-06</v>
+        <v>5.545063030570657e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.725000000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>456232.3761048992</v>
+        <v>498542.8904328158</v>
       </c>
     </row>
     <row r="3">
@@ -5659,28 +5659,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>181.8158567632024</v>
+        <v>204.6064380965161</v>
       </c>
       <c r="AB3" t="n">
-        <v>248.7684763727961</v>
+        <v>279.9515552025076</v>
       </c>
       <c r="AC3" t="n">
-        <v>225.0263621365982</v>
+        <v>253.2333716885379</v>
       </c>
       <c r="AD3" t="n">
-        <v>181815.8567632024</v>
+        <v>204606.4380965161</v>
       </c>
       <c r="AE3" t="n">
-        <v>248768.4763727961</v>
+        <v>279951.5552025076</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.121408018339061e-06</v>
+        <v>8.077902758357012e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.930208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>225026.3621365982</v>
+        <v>253233.3716885379</v>
       </c>
     </row>
     <row r="4">
@@ -5765,28 +5765,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>177.4501399987863</v>
+        <v>200.2407213321</v>
       </c>
       <c r="AB4" t="n">
-        <v>242.7951100938944</v>
+        <v>273.9781889236058</v>
       </c>
       <c r="AC4" t="n">
-        <v>219.6230855516807</v>
+        <v>247.8300951036204</v>
       </c>
       <c r="AD4" t="n">
-        <v>177450.1399987863</v>
+        <v>200240.7213321</v>
       </c>
       <c r="AE4" t="n">
-        <v>242795.1100938944</v>
+        <v>273978.1889236058</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.186713661125691e-06</v>
+        <v>8.205900915699122e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.86875</v>
       </c>
       <c r="AH4" t="n">
-        <v>219623.0855516807</v>
+        <v>247830.0951036204</v>
       </c>
     </row>
   </sheetData>
@@ -6062,28 +6062,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>473.5337923163355</v>
+        <v>508.3861727683286</v>
       </c>
       <c r="AB2" t="n">
-        <v>647.9098254837268</v>
+        <v>695.5963899966524</v>
       </c>
       <c r="AC2" t="n">
-        <v>586.0742210867105</v>
+        <v>629.2096468110361</v>
       </c>
       <c r="AD2" t="n">
-        <v>473533.7923163354</v>
+        <v>508386.1727683286</v>
       </c>
       <c r="AE2" t="n">
-        <v>647909.8254837268</v>
+        <v>695596.3899966524</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.484962175260839e-06</v>
+        <v>4.777844431133536e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.386458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>586074.2210867105</v>
+        <v>629209.6468110362</v>
       </c>
     </row>
     <row r="3">
@@ -6168,28 +6168,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.3297218125636</v>
+        <v>243.5362249985518</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.4648456451142</v>
+        <v>333.2170071028319</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.6934638854019</v>
+        <v>301.4152436180435</v>
       </c>
       <c r="AD3" t="n">
-        <v>220329.7218125636</v>
+        <v>243536.2249985518</v>
       </c>
       <c r="AE3" t="n">
-        <v>301464.8456451142</v>
+        <v>333217.0071028318</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.877887757285843e-06</v>
+        <v>7.456026739628043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.092708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>272693.4638854018</v>
+        <v>301415.2436180435</v>
       </c>
     </row>
     <row r="4">
@@ -6274,28 +6274,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>183.1818433485848</v>
+        <v>206.4735978805936</v>
       </c>
       <c r="AB4" t="n">
-        <v>250.6374794819903</v>
+        <v>282.5062855923572</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.7169902122138</v>
+        <v>255.5442821955678</v>
       </c>
       <c r="AD4" t="n">
-        <v>183181.8433485848</v>
+        <v>206473.5978805936</v>
       </c>
       <c r="AE4" t="n">
-        <v>250637.4794819903</v>
+        <v>282506.2855923572</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.154857975826964e-06</v>
+        <v>7.988558232228176e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.819791666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>226716.9902122138</v>
+        <v>255544.2821955678</v>
       </c>
     </row>
     <row r="5">
@@ -6380,28 +6380,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>184.1088247217003</v>
+        <v>207.4005792537091</v>
       </c>
       <c r="AB5" t="n">
-        <v>251.9058162922181</v>
+        <v>283.7746224025851</v>
       </c>
       <c r="AC5" t="n">
-        <v>227.8642787373958</v>
+        <v>256.6915707207498</v>
       </c>
       <c r="AD5" t="n">
-        <v>184108.8247217003</v>
+        <v>207400.5792537091</v>
       </c>
       <c r="AE5" t="n">
-        <v>251905.8162922181</v>
+        <v>283774.6224025851</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.154553278116798e-06</v>
+        <v>7.987972389001992e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.819791666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>227864.2787373958</v>
+        <v>256691.5707207498</v>
       </c>
     </row>
   </sheetData>
@@ -6677,28 +6677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>772.1797201577963</v>
+        <v>820.4658905692538</v>
       </c>
       <c r="AB2" t="n">
-        <v>1056.530359284882</v>
+        <v>1122.597627877332</v>
       </c>
       <c r="AC2" t="n">
-        <v>955.6965846444042</v>
+        <v>1015.458485848385</v>
       </c>
       <c r="AD2" t="n">
-        <v>772179.7201577963</v>
+        <v>820465.8905692538</v>
       </c>
       <c r="AE2" t="n">
-        <v>1056530.359284882</v>
+        <v>1122597.627877332</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.900923530876036e-06</v>
+        <v>3.541276359769493e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.058333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>955696.5846444042</v>
+        <v>1015458.485848385</v>
       </c>
     </row>
     <row r="3">
@@ -6783,28 +6783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>285.9024242608001</v>
+        <v>310.1734759941108</v>
       </c>
       <c r="AB3" t="n">
-        <v>391.1843099983964</v>
+        <v>424.393033743144</v>
       </c>
       <c r="AC3" t="n">
-        <v>353.8502284827761</v>
+        <v>383.8895582420614</v>
       </c>
       <c r="AD3" t="n">
-        <v>285902.4242608001</v>
+        <v>310173.4759941108</v>
       </c>
       <c r="AE3" t="n">
-        <v>391184.3099983964</v>
+        <v>424393.033743144</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.384370315085633e-06</v>
+        <v>6.304825204617844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.526041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>353850.2284827761</v>
+        <v>383889.5582420614</v>
       </c>
     </row>
     <row r="4">
@@ -6889,28 +6889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>210.3119343867735</v>
+        <v>234.4976452655123</v>
       </c>
       <c r="AB4" t="n">
-        <v>287.7580669355655</v>
+        <v>320.8500235580983</v>
       </c>
       <c r="AC4" t="n">
-        <v>260.2948408983033</v>
+        <v>290.2285476256449</v>
       </c>
       <c r="AD4" t="n">
-        <v>210311.9343867735</v>
+        <v>234497.6452655123</v>
       </c>
       <c r="AE4" t="n">
-        <v>287758.0669355654</v>
+        <v>320850.0235580982</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.942280416125602e-06</v>
+        <v>7.344169407369098e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.885416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>260294.8408983033</v>
+        <v>290228.5476256449</v>
       </c>
     </row>
     <row r="5">
@@ -6995,28 +6995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>194.6666282367211</v>
+        <v>218.8523391154598</v>
       </c>
       <c r="AB5" t="n">
-        <v>266.3514688388805</v>
+        <v>299.4434254614133</v>
       </c>
       <c r="AC5" t="n">
-        <v>240.93125847961</v>
+        <v>270.8649652069516</v>
       </c>
       <c r="AD5" t="n">
-        <v>194666.6282367211</v>
+        <v>218852.3391154599</v>
       </c>
       <c r="AE5" t="n">
-        <v>266351.4688388805</v>
+        <v>299443.4254614133</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.095948327455799e-06</v>
+        <v>7.630441071015662e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.739583333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>240931.25847961</v>
+        <v>270864.9652069517</v>
       </c>
     </row>
     <row r="6">
@@ -7101,28 +7101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>195.2741687456173</v>
+        <v>219.459879624356</v>
       </c>
       <c r="AB6" t="n">
-        <v>267.1827325659475</v>
+        <v>300.2746891884802</v>
       </c>
       <c r="AC6" t="n">
-        <v>241.683187563252</v>
+        <v>271.6168942905936</v>
       </c>
       <c r="AD6" t="n">
-        <v>195274.1687456173</v>
+        <v>219459.879624356</v>
       </c>
       <c r="AE6" t="n">
-        <v>267182.7325659475</v>
+        <v>300274.6891884803</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.096389479354354e-06</v>
+        <v>7.631262903542876e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>4</v>
+        <v>3.739583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>241683.187563252</v>
+        <v>271616.8942905936</v>
       </c>
     </row>
   </sheetData>
@@ -7398,28 +7398,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>294.3147922130501</v>
+        <v>316.5558486998193</v>
       </c>
       <c r="AB2" t="n">
-        <v>402.6944829581461</v>
+        <v>433.1256776495059</v>
       </c>
       <c r="AC2" t="n">
-        <v>364.2618866898763</v>
+        <v>391.7887708703427</v>
       </c>
       <c r="AD2" t="n">
-        <v>294314.7922130501</v>
+        <v>316555.8486998192</v>
       </c>
       <c r="AE2" t="n">
-        <v>402694.4829581461</v>
+        <v>433125.6776495058</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.213861247500941e-06</v>
+        <v>6.442176369838093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>364261.8866898763</v>
+        <v>391788.7708703427</v>
       </c>
     </row>
     <row r="3">
@@ -7504,28 +7504,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>172.4623816449864</v>
+        <v>205.6531504031698</v>
       </c>
       <c r="AB3" t="n">
-        <v>235.9706390698602</v>
+        <v>281.3837131581584</v>
       </c>
       <c r="AC3" t="n">
-        <v>213.4499324639729</v>
+        <v>254.5288464989482</v>
       </c>
       <c r="AD3" t="n">
-        <v>172462.3816449864</v>
+        <v>205653.1504031698</v>
       </c>
       <c r="AE3" t="n">
-        <v>235970.6390698602</v>
+        <v>281383.7131581584</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.184287621610223e-06</v>
+        <v>8.387393469927805e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.960416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>213449.9324639729</v>
+        <v>254528.8464989482</v>
       </c>
     </row>
   </sheetData>
@@ -7801,28 +7801,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>193.9700531158808</v>
+        <v>215.175299783604</v>
       </c>
       <c r="AB2" t="n">
-        <v>265.3983840278219</v>
+        <v>294.4123380280443</v>
       </c>
       <c r="AC2" t="n">
-        <v>240.0691347452556</v>
+        <v>266.3140376970462</v>
       </c>
       <c r="AD2" t="n">
-        <v>193970.0531158808</v>
+        <v>215175.299783604</v>
       </c>
       <c r="AE2" t="n">
-        <v>265398.3840278219</v>
+        <v>294412.3380280443</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.911706823126753e-06</v>
+        <v>8.183535303977551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.412500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>240069.1347452556</v>
+        <v>266314.0376970462</v>
       </c>
     </row>
     <row r="3">
@@ -7907,28 +7907,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.7099410050836</v>
+        <v>198.9151876728068</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.1505812923217</v>
+        <v>272.1645352925441</v>
       </c>
       <c r="AC3" t="n">
-        <v>219.9446310778372</v>
+        <v>246.1895340296278</v>
       </c>
       <c r="AD3" t="n">
-        <v>177709.9410050836</v>
+        <v>198915.1876728068</v>
       </c>
       <c r="AE3" t="n">
-        <v>243150.5812923217</v>
+        <v>272164.5352925441</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.137576613422103e-06</v>
+        <v>8.656069030701609e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.171875</v>
       </c>
       <c r="AH3" t="n">
-        <v>219944.6310778372</v>
+        <v>246189.5340296278</v>
       </c>
     </row>
   </sheetData>
@@ -13521,28 +13521,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>174.9018347428633</v>
+        <v>195.3473538026304</v>
       </c>
       <c r="AB2" t="n">
-        <v>239.3084064194489</v>
+        <v>267.2828675896498</v>
       </c>
       <c r="AC2" t="n">
-        <v>216.4691479823038</v>
+        <v>241.7737658408324</v>
       </c>
       <c r="AD2" t="n">
-        <v>174901.8347428633</v>
+        <v>195347.3538026304</v>
       </c>
       <c r="AE2" t="n">
-        <v>239308.4064194489</v>
+        <v>267282.8675896497</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.018538379877076e-06</v>
+        <v>8.735722843486875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.44375</v>
       </c>
       <c r="AH2" t="n">
-        <v>216469.1479823038</v>
+        <v>241773.7658408324</v>
       </c>
     </row>
     <row r="3">
@@ -13627,28 +13627,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>176.16245144575</v>
+        <v>196.6079705055172</v>
       </c>
       <c r="AB3" t="n">
-        <v>241.0332378068215</v>
+        <v>269.0076989770223</v>
       </c>
       <c r="AC3" t="n">
-        <v>218.0293638828822</v>
+        <v>243.3339817414108</v>
       </c>
       <c r="AD3" t="n">
-        <v>176162.45144575</v>
+        <v>196607.9705055172</v>
       </c>
       <c r="AE3" t="n">
-        <v>241033.2378068215</v>
+        <v>269007.6989770223</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.017509831533111e-06</v>
+        <v>8.733486927734767e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.444791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>218029.3638828822</v>
+        <v>243333.9817414108</v>
       </c>
     </row>
   </sheetData>
@@ -13924,28 +13924,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>195.2597224692875</v>
+        <v>223.7968544924089</v>
       </c>
       <c r="AB2" t="n">
-        <v>267.1629665333484</v>
+        <v>306.2087295367747</v>
       </c>
       <c r="AC2" t="n">
-        <v>241.6653079730623</v>
+        <v>276.9845981565266</v>
       </c>
       <c r="AD2" t="n">
-        <v>195259.7224692875</v>
+        <v>223796.8544924089</v>
       </c>
       <c r="AE2" t="n">
-        <v>267162.9665333484</v>
+        <v>306208.7295367747</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.429960636783268e-06</v>
+        <v>8.15825385841175e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.587499999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>241665.3079730623</v>
+        <v>276984.5981565266</v>
       </c>
     </row>
   </sheetData>
@@ -14221,28 +14221,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>423.8848236279913</v>
+        <v>458.3693411854314</v>
       </c>
       <c r="AB2" t="n">
-        <v>579.9779161664235</v>
+        <v>627.1611544380563</v>
       </c>
       <c r="AC2" t="n">
-        <v>524.6256378516171</v>
+        <v>567.3057740846961</v>
       </c>
       <c r="AD2" t="n">
-        <v>423884.8236279913</v>
+        <v>458369.3411854315</v>
       </c>
       <c r="AE2" t="n">
-        <v>579977.9161664235</v>
+        <v>627161.1544380563</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.653175838540201e-06</v>
+        <v>5.148695179741097e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.040624999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>524625.6378516171</v>
+        <v>567305.7740846961</v>
       </c>
     </row>
     <row r="3">
@@ -14327,28 +14327,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>193.8268623102774</v>
+        <v>228.2259495045944</v>
       </c>
       <c r="AB3" t="n">
-        <v>265.2024640504629</v>
+        <v>312.2688127303254</v>
       </c>
       <c r="AC3" t="n">
-        <v>239.8919130955603</v>
+        <v>282.4663155154669</v>
       </c>
       <c r="AD3" t="n">
-        <v>193826.8623102774</v>
+        <v>228225.9495045944</v>
       </c>
       <c r="AE3" t="n">
-        <v>265202.4640504629</v>
+        <v>312268.8127303254</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.007998854160828e-06</v>
+        <v>7.777835181922873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.998958333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>239891.9130955603</v>
+        <v>282466.3155154669</v>
       </c>
     </row>
     <row r="4">
@@ -14433,28 +14433,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>180.1705468174797</v>
+        <v>203.2170594197865</v>
       </c>
       <c r="AB4" t="n">
-        <v>246.5172907191074</v>
+        <v>278.0505460019459</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.9900264821379</v>
+        <v>251.5137921379941</v>
       </c>
       <c r="AD4" t="n">
-        <v>180170.5468174797</v>
+        <v>203217.0594197865</v>
       </c>
       <c r="AE4" t="n">
-        <v>246517.2907191074</v>
+        <v>278050.5460019459</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.169562075785093e-06</v>
+        <v>8.091361246918996e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>222990.0264821379</v>
+        <v>251513.7921379941</v>
       </c>
     </row>
   </sheetData>
@@ -14730,28 +14730,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>676.2175732972031</v>
+        <v>724.1648961137008</v>
       </c>
       <c r="AB2" t="n">
-        <v>925.2307163990876</v>
+        <v>990.8343587632132</v>
       </c>
       <c r="AC2" t="n">
-        <v>836.9279953954242</v>
+        <v>896.2705182076079</v>
       </c>
       <c r="AD2" t="n">
-        <v>676217.5732972031</v>
+        <v>724164.8961137008</v>
       </c>
       <c r="AE2" t="n">
-        <v>925230.7163990876</v>
+        <v>990834.3587632133</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.037133366205188e-06</v>
+        <v>3.822461218281673e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.582291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>836927.9953954242</v>
+        <v>896270.5182076079</v>
       </c>
     </row>
     <row r="3">
@@ -14836,28 +14836,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>268.5535730790573</v>
+        <v>292.4419831412857</v>
       </c>
       <c r="AB3" t="n">
-        <v>367.4468464342394</v>
+        <v>400.1320229636529</v>
       </c>
       <c r="AC3" t="n">
-        <v>332.3782351254429</v>
+        <v>361.9439842808225</v>
       </c>
       <c r="AD3" t="n">
-        <v>268553.5730790573</v>
+        <v>292441.9831412857</v>
       </c>
       <c r="AE3" t="n">
-        <v>367446.8464342394</v>
+        <v>400132.0229636529</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.502819611560621e-06</v>
+        <v>6.572663499576844e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.409375</v>
       </c>
       <c r="AH3" t="n">
-        <v>332378.2351254429</v>
+        <v>361943.9842808224</v>
       </c>
     </row>
     <row r="4">
@@ -14942,28 +14942,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.8340467299747</v>
+        <v>222.8077081382233</v>
       </c>
       <c r="AB4" t="n">
-        <v>272.0535146748754</v>
+        <v>304.8553358569214</v>
       </c>
       <c r="AC4" t="n">
-        <v>246.089109063891</v>
+        <v>275.7603704699781</v>
       </c>
       <c r="AD4" t="n">
-        <v>198834.0467299747</v>
+        <v>222807.7081382233</v>
       </c>
       <c r="AE4" t="n">
-        <v>272053.5146748754</v>
+        <v>304855.3358569214</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.036456920314713e-06</v>
+        <v>7.573976398957858e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.826041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>246089.1090638911</v>
+        <v>275760.3704699781</v>
       </c>
     </row>
     <row r="5">
@@ -15048,28 +15048,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>191.7961456979592</v>
+        <v>215.7698071062078</v>
       </c>
       <c r="AB5" t="n">
-        <v>262.4239479925965</v>
+        <v>295.2257691746424</v>
       </c>
       <c r="AC5" t="n">
-        <v>237.378574710584</v>
+        <v>267.049836116671</v>
       </c>
       <c r="AD5" t="n">
-        <v>191796.1456979592</v>
+        <v>215769.8071062078</v>
       </c>
       <c r="AE5" t="n">
-        <v>262423.9479925965</v>
+        <v>295225.7691746424</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.11207654450604e-06</v>
+        <v>7.715868474168836e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>4</v>
+        <v>3.75625</v>
       </c>
       <c r="AH5" t="n">
-        <v>237378.574710584</v>
+        <v>267049.836116671</v>
       </c>
     </row>
   </sheetData>
@@ -15345,28 +15345,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>221.0521846439369</v>
+        <v>257.6076156422984</v>
       </c>
       <c r="AB2" t="n">
-        <v>302.4533511638094</v>
+        <v>352.4701045675387</v>
       </c>
       <c r="AC2" t="n">
-        <v>273.5876278247693</v>
+        <v>318.8308524826168</v>
       </c>
       <c r="AD2" t="n">
-        <v>221052.1846439369</v>
+        <v>257607.6156422984</v>
       </c>
       <c r="AE2" t="n">
-        <v>302453.3511638094</v>
+        <v>352470.1045675387</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.907954259620827e-06</v>
+        <v>7.272572920024821e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.824999999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>273587.6278247693</v>
+        <v>318830.8524826168</v>
       </c>
     </row>
   </sheetData>
@@ -15642,28 +15642,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>220.2045197319807</v>
+        <v>252.5610198004374</v>
       </c>
       <c r="AB2" t="n">
-        <v>301.2935386349349</v>
+        <v>345.5651294966125</v>
       </c>
       <c r="AC2" t="n">
-        <v>272.5385061758431</v>
+        <v>312.5848785412643</v>
       </c>
       <c r="AD2" t="n">
-        <v>220204.5197319807</v>
+        <v>252561.0198004374</v>
       </c>
       <c r="AE2" t="n">
-        <v>301293.5386349349</v>
+        <v>345565.1294966125</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.670651660484418e-06</v>
+        <v>7.558912244953211e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.634375</v>
       </c>
       <c r="AH2" t="n">
-        <v>272538.5061758431</v>
+        <v>312584.8785412643</v>
       </c>
     </row>
     <row r="3">
@@ -15748,28 +15748,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>179.5291111705093</v>
+        <v>201.0717537731742</v>
       </c>
       <c r="AB3" t="n">
-        <v>245.6396501687793</v>
+        <v>275.115244172047</v>
       </c>
       <c r="AC3" t="n">
-        <v>222.1961467141566</v>
+        <v>248.8586313950177</v>
       </c>
       <c r="AD3" t="n">
-        <v>179529.1111705092</v>
+        <v>201071.7537731742</v>
       </c>
       <c r="AE3" t="n">
-        <v>245639.6501687793</v>
+        <v>275115.244172047</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.164143488849215e-06</v>
+        <v>8.57515180382182e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.085416666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>222196.1467141566</v>
+        <v>248858.6313950177</v>
       </c>
     </row>
   </sheetData>
@@ -16045,28 +16045,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.4604996314541</v>
+        <v>364.0738294171826</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.1506344840741</v>
+        <v>498.141875212359</v>
       </c>
       <c r="AC2" t="n">
-        <v>408.9980125263144</v>
+        <v>450.5999137886035</v>
       </c>
       <c r="AD2" t="n">
-        <v>330460.4996314541</v>
+        <v>364073.8294171826</v>
       </c>
       <c r="AE2" t="n">
-        <v>452150.6344840741</v>
+        <v>498141.875212359</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.010499335265684e-06</v>
+        <v>5.964353451561136e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.439583333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>408998.0125263144</v>
+        <v>450599.9137886036</v>
       </c>
     </row>
     <row r="3">
@@ -16151,28 +16151,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.4898243534209</v>
+        <v>198.0124390109677</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.1129197448842</v>
+        <v>270.9293547469563</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.1968796851014</v>
+        <v>245.0722373817237</v>
       </c>
       <c r="AD3" t="n">
-        <v>175489.8243534209</v>
+        <v>198012.4390109677</v>
       </c>
       <c r="AE3" t="n">
-        <v>240112.9197448842</v>
+        <v>270929.3547469563</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.180707532068612e-06</v>
+        <v>8.282751338545131e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>4</v>
+        <v>3.917708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>217196.8796851014</v>
+        <v>245072.2373817237</v>
       </c>
     </row>
     <row r="4">
@@ -16257,28 +16257,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.2443710309346</v>
+        <v>197.7669856884814</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.7770796804223</v>
+        <v>270.5935146824944</v>
       </c>
       <c r="AC4" t="n">
-        <v>216.8930917250372</v>
+        <v>244.7684494216595</v>
       </c>
       <c r="AD4" t="n">
-        <v>175244.3710309346</v>
+        <v>197766.9856884814</v>
       </c>
       <c r="AE4" t="n">
-        <v>239777.0796804223</v>
+        <v>270593.5146824944</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.192184785644672e-06</v>
+        <v>8.305489890976922e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>3.90625</v>
       </c>
       <c r="AH4" t="n">
-        <v>216893.0917250372</v>
+        <v>244768.4494216595</v>
       </c>
     </row>
   </sheetData>
